--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create__Denied.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create__Denied.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="13230"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337">
   <si>
     <t>Step No</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>LLS_SUB_RELATION</t>
+  </si>
+  <si>
+    <t>Child</t>
   </si>
   <si>
     <t>LLS_OP_PRESCRIPTION_NO</t>
@@ -1046,9 +1049,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -1087,33 +1090,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1125,9 +1106,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,6 +1122,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1149,10 +1190,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1165,7 +1214,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1180,52 +1229,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1258,7 +1261,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,49 +1393,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,115 +1435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,17 +1514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1537,11 +1529,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,33 +1583,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1620,130 +1623,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2200,8 +2203,8 @@
   <sheetPr/>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3577,7 +3580,7 @@
         <v>157</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -3594,7 +3597,7 @@
         <v>20</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -3612,7 +3615,7 @@
         <v>20</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -3630,14 +3633,14 @@
         <v>20</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H67" s="17"/>
     </row>
@@ -3652,7 +3655,7 @@
         <v>20</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -3670,7 +3673,7 @@
         <v>20</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -3688,14 +3691,14 @@
         <v>20</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H70" s="9"/>
     </row>
@@ -3752,7 +3755,7 @@
         <v>20</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -3812,16 +3815,16 @@
         <v>20</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>138</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H76" s="9"/>
     </row>
@@ -3852,10 +3855,10 @@
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H78" s="9"/>
     </row>
@@ -3870,14 +3873,14 @@
         <v>20</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H79" s="17"/>
     </row>
@@ -3892,14 +3895,14 @@
         <v>20</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H80" s="9"/>
     </row>
@@ -3914,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -3932,7 +3935,7 @@
         <v>20</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
@@ -3950,16 +3953,16 @@
         <v>20</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>138</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H83" s="17"/>
     </row>
@@ -3990,10 +3993,10 @@
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H85" s="17"/>
     </row>
@@ -4008,16 +4011,16 @@
         <v>15</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H86" s="9"/>
     </row>
@@ -4032,16 +4035,16 @@
         <v>15</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H87" s="17"/>
     </row>
@@ -4098,14 +4101,14 @@
         <v>20</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H90" s="9"/>
     </row>
@@ -4122,10 +4125,10 @@
         <v>2</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H91" s="17"/>
     </row>
@@ -4134,20 +4137,20 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H92" s="9"/>
     </row>
@@ -4178,16 +4181,16 @@
         <v>15</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H94" s="9"/>
     </row>
@@ -4202,16 +4205,16 @@
         <v>20</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H95" s="17"/>
     </row>
@@ -4220,22 +4223,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H96" s="9"/>
     </row>
@@ -4250,14 +4253,14 @@
         <v>15</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H97" s="17"/>
     </row>
@@ -4288,14 +4291,14 @@
         <v>20</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H99" s="17"/>
     </row>
@@ -4388,14 +4391,14 @@
         <v>20</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H104" s="18"/>
     </row>
@@ -4410,14 +4413,14 @@
         <v>15</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E105" s="21"/>
       <c r="F105" s="21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H105" s="21"/>
     </row>
@@ -4448,14 +4451,14 @@
         <v>20</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E107" s="21"/>
       <c r="F107" s="21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H107" s="21"/>
     </row>
@@ -4470,16 +4473,16 @@
         <v>15</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H108" s="18"/>
     </row>
@@ -4494,16 +4497,16 @@
         <v>20</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H109" s="21"/>
     </row>
@@ -4512,22 +4515,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H110" s="18"/>
     </row>
@@ -4546,10 +4549,10 @@
       </c>
       <c r="E111" s="21"/>
       <c r="F111" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H111" s="21"/>
     </row>
@@ -4578,7 +4581,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="21"/>
@@ -4618,14 +4621,14 @@
         <v>15</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E115" s="21"/>
       <c r="F115" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H115" s="21"/>
     </row>
@@ -4656,14 +4659,14 @@
         <v>20</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H117" s="12"/>
     </row>
@@ -4740,7 +4743,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4748,20 +4751,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -4772,20 +4775,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -4793,47 +4796,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -4843,12 +4846,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -4858,55 +4861,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -4916,152 +4919,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5071,209 +5074,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5283,7 +5286,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create__Denied.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create__Denied.xlsx
@@ -1049,10 +1049,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1105,18 +1105,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1125,6 +1117,14 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1152,7 +1152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,9 +1174,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,22 +1211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1213,22 +1218,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,19 +1261,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,73 +1357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,31 +1369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,13 +1393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,13 +1405,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,7 +1441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,16 +1515,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1579,21 +1579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1602,16 +1587,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1623,40 +1623,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1665,88 +1665,88 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2203,8 +2203,8 @@
   <sheetPr/>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2338,7 +2338,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -2464,7 +2464,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>39</v>
@@ -2502,7 +2502,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2918,7 +2918,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>12</v>
@@ -3160,7 +3160,7 @@
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>12</v>
@@ -3222,7 +3222,7 @@
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -3394,7 +3394,7 @@
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -3718,7 +3718,7 @@
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>12</v>
@@ -3778,7 +3778,7 @@
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>12</v>
@@ -4064,7 +4064,7 @@
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>12</v>
@@ -4258,7 +4258,7 @@
       <c r="C97" s="10"/>
       <c r="D97" s="13"/>
       <c r="E97" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create__Denied.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create__Denied.xlsx
@@ -17,6 +17,7 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335">
   <si>
     <t>Step No</t>
   </si>
@@ -465,21 +466,18 @@
     <t>Insurance selected</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>APP_INS_TYPE</t>
   </si>
   <si>
-    <t>Medicare</t>
-  </si>
-  <si>
     <t>Insurance type selected</t>
   </si>
   <si>
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -832,9 +830,6 @@
   </si>
   <si>
     <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>SelectByValue</t>
@@ -1049,10 +1044,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1091,12 +1086,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1112,32 +1131,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1152,30 +1186,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,31 +1206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,15 +1222,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1255,13 +1250,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor theme="4" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,13 +1412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,127 +1430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,25 +1442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,15 +1506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1529,6 +1521,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1540,6 +1541,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1568,26 +1589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1605,13 +1606,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1623,134 +1624,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1769,9 +1770,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -1920,6 +1923,21 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2203,8 +2221,8 @@
   <sheetPr/>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3462,17 +3480,17 @@
       <c r="A59" s="8">
         <v>59</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>41</v>
+      <c r="B59" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" s="10" t="s">
         <v>145</v>
+      </c>
+      <c r="E59" s="10">
+        <v>1</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>142</v>
@@ -3486,23 +3504,23 @@
       <c r="A60" s="11">
         <v>60</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="15" t="s">
+      <c r="B60" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="18">
+        <v>1</v>
+      </c>
+      <c r="F60" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="G60" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="H60" s="17"/>
     </row>
@@ -3517,14 +3535,14 @@
         <v>15</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="H61" s="9"/>
     </row>
@@ -3539,14 +3557,14 @@
         <v>15</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="H62" s="17"/>
     </row>
@@ -3561,10 +3579,10 @@
         <v>20</v>
       </c>
       <c r="D63" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -3581,7 +3599,7 @@
         <v>20</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -3599,7 +3617,7 @@
         <v>20</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
@@ -3617,14 +3635,14 @@
         <v>20</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G66" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="H66" s="17"/>
     </row>
@@ -3639,7 +3657,7 @@
         <v>20</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
@@ -3657,7 +3675,7 @@
         <v>20</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -3675,14 +3693,14 @@
         <v>20</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G69" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="H69" s="9"/>
     </row>
@@ -3739,7 +3757,7 @@
         <v>20</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -3799,16 +3817,16 @@
         <v>20</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>138</v>
       </c>
       <c r="F75" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="H75" s="9"/>
     </row>
@@ -3839,10 +3857,10 @@
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="H77" s="9"/>
     </row>
@@ -3857,14 +3875,14 @@
         <v>20</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G78" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="H78" s="17"/>
     </row>
@@ -3879,14 +3897,14 @@
         <v>20</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="H79" s="9"/>
     </row>
@@ -3901,7 +3919,7 @@
         <v>20</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -3919,7 +3937,7 @@
         <v>20</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
@@ -3937,16 +3955,16 @@
         <v>20</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>138</v>
       </c>
       <c r="F82" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G82" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="H82" s="17"/>
     </row>
@@ -3977,10 +3995,10 @@
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G84" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="H84" s="17"/>
     </row>
@@ -3995,16 +4013,16 @@
         <v>15</v>
       </c>
       <c r="D85" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="F85" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="G85" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="H85" s="9"/>
     </row>
@@ -4019,16 +4037,16 @@
         <v>15</v>
       </c>
       <c r="D86" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="F86" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F86" s="12" t="s">
+      <c r="G86" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="H86" s="17"/>
     </row>
@@ -4085,14 +4103,14 @@
         <v>20</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="H89" s="9"/>
     </row>
@@ -4109,10 +4127,10 @@
         <v>2</v>
       </c>
       <c r="F90" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G90" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="H90" s="17"/>
     </row>
@@ -4121,20 +4139,20 @@
         <v>91</v>
       </c>
       <c r="B91" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="H91" s="9"/>
     </row>
@@ -4165,16 +4183,16 @@
         <v>15</v>
       </c>
       <c r="D93" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E93" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="F93" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="G93" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="H93" s="9"/>
     </row>
@@ -4189,16 +4207,16 @@
         <v>20</v>
       </c>
       <c r="D94" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="F94" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="G94" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>210</v>
       </c>
       <c r="H94" s="17"/>
     </row>
@@ -4207,22 +4225,22 @@
         <v>95</v>
       </c>
       <c r="B95" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="13" t="s">
+      <c r="E95" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="F95" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="G95" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="H95" s="9"/>
     </row>
@@ -4237,14 +4255,14 @@
         <v>15</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G96" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="H96" s="17"/>
     </row>
@@ -4275,14 +4293,14 @@
         <v>20</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G98" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="H98" s="17"/>
     </row>
@@ -4306,7 +4324,7 @@
       <c r="A100" s="11">
         <v>100</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C100" s="12" t="s">
@@ -4322,7 +4340,7 @@
       <c r="G100" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H100" s="19">
+      <c r="H100" s="21">
         <v>3</v>
       </c>
     </row>
@@ -4346,7 +4364,7 @@
       <c r="G101" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H101" s="19"/>
+      <c r="H101" s="21"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="11">
@@ -4362,275 +4380,275 @@
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="19"/>
+      <c r="H102" s="21"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="8">
         <v>103</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C103" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="20" t="s">
+      <c r="C103" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18" t="s">
+      <c r="G103" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="G103" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H103" s="18"/>
+      <c r="H103" s="20"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="11">
         <v>104</v>
       </c>
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="22" t="s">
+      <c r="D104" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21" t="s">
+      <c r="G104" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="G104" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="H104" s="21"/>
+      <c r="H104" s="23"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="8">
         <v>105</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18">
-        <v>20</v>
-      </c>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20">
+        <v>20</v>
+      </c>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="11">
         <v>106</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C106" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D106" s="22" t="s">
+      <c r="C106" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="E106" s="21"/>
-      <c r="F106" s="21" t="s">
+      <c r="G106" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="G106" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="H106" s="21"/>
+      <c r="H106" s="23"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="8">
         <v>107</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="D107" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E107" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="F107" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="F107" s="18" t="s">
+      <c r="G107" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="G107" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H107" s="18"/>
+      <c r="H107" s="20"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="11">
         <v>108</v>
       </c>
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C108" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="22" t="s">
+      <c r="C108" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E108" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E108" s="21" t="s">
+      <c r="F108" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F108" s="21" t="s">
+      <c r="G108" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="G108" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="H108" s="21"/>
+      <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="8">
         <v>109</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C109" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" s="20" t="s">
+      <c r="E109" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="F109" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="F109" s="18" t="s">
+      <c r="G109" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G109" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="H109" s="18"/>
+      <c r="H109" s="20"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="11">
         <v>110</v>
       </c>
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C110" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110" s="22" t="s">
+      <c r="C110" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21" t="s">
+      <c r="E110" s="23"/>
+      <c r="F110" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G110" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="G110" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="H110" s="21"/>
+      <c r="H110" s="23"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="8">
         <v>111</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18">
-        <v>20</v>
-      </c>
-      <c r="F111" s="18" t="s">
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20">
+        <v>20</v>
+      </c>
+      <c r="F111" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="18" t="s">
+      <c r="G111" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H111" s="18"/>
+      <c r="H111" s="20"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="11">
         <v>112</v>
       </c>
-      <c r="B112" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21"/>
+      <c r="B112" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8">
         <v>113</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18">
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20">
         <v>10</v>
       </c>
-      <c r="F113" s="18" t="s">
+      <c r="F113" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="18" t="s">
+      <c r="G113" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="18"/>
+      <c r="H113" s="20"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="11">
         <v>114</v>
       </c>
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="D114" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21" t="s">
+      <c r="G114" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="G114" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="H114" s="21"/>
+      <c r="H114" s="23"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="8">
         <v>115</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18">
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20">
         <v>5</v>
       </c>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="11">
@@ -4643,14 +4661,14 @@
         <v>20</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G116" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="H116" s="12"/>
     </row>
@@ -4671,8 +4689,8 @@
       <c r="H117" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C14 B29 B45 B46 B47 B52 B53 B54 B55 B59 B62 B63 B64 B65 B66 B69 B82 B83 B92 B93 B94 B95 B96 B97 B98 B99 B13:B19 B20:B28 B30:B38 B39:B44 B48:B51 B56:B58 B60:B61 B67:B68 B70:B79 B80:B81 B84:B88 B89:B90 B116:B117 C2:C3">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C14 B29 B45 B46 B47 B52 B53 B54 B55 B61 B62 B63 B64 B65 B66 B69 B82 B83 B92 B93 B94 B95 B96 B97 B98 B99 B13:B19 B20:B28 B30:B38 B39:B44 B48:B51 B56:B58 B67:B68 B70:B79 B80:B81 B84:B88 B89:B90 B116:B117 C2:C3">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -4692,6 +4710,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100 B103:B115">
       <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59:B60">
+      <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118:B1048576">
       <formula1>DataList!$C$2:$C$129</formula1>
@@ -4727,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4735,20 +4756,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
         <v>240</v>
-      </c>
-      <c r="C3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -4759,20 +4780,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
         <v>244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -4780,47 +4801,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" t="s">
         <v>247</v>
-      </c>
-      <c r="C8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" t="s">
         <v>253</v>
-      </c>
-      <c r="C11" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -4830,12 +4851,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -4845,55 +4866,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>267</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -4903,152 +4924,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5058,209 +5079,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5270,7 +5291,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
